--- a/example/999_模板人物属性文件.xlsx
+++ b/example/999_模板人物属性文件.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\era\erArk\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{448472EE-B4FD-4B60-AA37-803C0433223F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864FF806-6CFD-4254-A8B4-9416211375BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6070BEB7-732F-48C8-8C53-2F6432D6600B}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="95">
   <si>
     <t>key</t>
   </si>
@@ -328,6 +328,10 @@
   <si>
     <t>#(说明行，写完请删掉该行)  0,帽子 1,眼镜 2,耳部 3,脖子 4,嘴部 5,上衣 6,胸衣 7,手套 8,下衣 9,内裤 10,袜子 11,鞋子 12,武器 13,附属物#</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#(说明行，写完请删掉该行)  除非人设有特殊需求，一般初始能力最高可以到3级，初始经验最高不要超过200#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -752,10 +756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1FF976F-E373-4572-9F48-BE2DE341192E}">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1040,413 +1044,423 @@
       <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="4" t="s">
+      <c r="B19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="B20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="2" t="s">
+      <c r="D20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="4" t="s">
+      <c r="B21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="2" t="s">
+      <c r="B22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="4" t="s">
+      <c r="B23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="2" t="s">
+      <c r="B24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="4" t="s">
+      <c r="B25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="2" t="s">
+      <c r="B26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="4" t="s">
+      <c r="B27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="2" t="s">
+      <c r="B28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="4" t="s">
+      <c r="B29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="2" t="s">
+      <c r="B30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B31" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C31" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D31" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E31" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" s="4" t="s">
+      <c r="B35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" s="2" t="s">
+      <c r="B36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" s="4" t="s">
+      <c r="B37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" s="2" t="s">
+      <c r="B38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38" s="4" t="s">
+      <c r="B39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" s="2" t="s">
+      <c r="B40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40" s="4" t="s">
+      <c r="B41" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" s="2" t="s">
+      <c r="B42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" s="4" t="s">
+      <c r="B43" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="4" t="s">
         <v>89</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A31:E31"/>
     <mergeCell ref="A32:E32"/>
     <mergeCell ref="A33:E33"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A18:E18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/example/999_模板人物属性文件.xlsx
+++ b/example/999_模板人物属性文件.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="95">
   <si>
     <t>key</t>
   </si>
@@ -103,6 +103,18 @@
     <t>种族：菲林</t>
   </si>
   <si>
+    <t>Nation</t>
+  </si>
+  <si>
+    <t>势力：罗德岛</t>
+  </si>
+  <si>
+    <t>Birthplace</t>
+  </si>
+  <si>
+    <t>出身地：雷姆必拓</t>
+  </si>
+  <si>
     <t>Hp</t>
   </si>
   <si>
@@ -124,10 +136,10 @@
     <t>Dormitory</t>
   </si>
   <si>
-    <t>宿舍101房</t>
-  </si>
-  <si>
-    <t>初始宿舍位置：101房（初始默认都在101）</t>
+    <t>无</t>
+  </si>
+  <si>
+    <t>初始宿舍位置：如果没有专门设定就统一写“无”，会住进宿舍</t>
   </si>
   <si>
     <t>Token</t>
@@ -304,7 +316,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -388,7 +400,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -408,6 +420,12 @@
     <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -415,7 +433,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -719,20 +737,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="18.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="16.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="69.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="11" width="15.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="11" width="18.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="11" width="16.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="11" width="69.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -749,7 +767,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -766,14 +784,14 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -782,7 +800,7 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -799,7 +817,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
@@ -816,7 +834,7 @@
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -833,7 +851,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -850,7 +868,7 @@
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21">
       <c r="A9" s="3" t="s">
         <v>26</v>
       </c>
@@ -868,175 +886,175 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="2" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="3" t="s">
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="8">
+        <v>9</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="4" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="21">
+      <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="1" t="s">
+      <c r="D12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="2" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="21">
+      <c r="A13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="B13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="3" t="s">
+      <c r="D13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="4" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="21">
+      <c r="A14" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="21">
+      <c r="A15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="B15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="7" t="s">
+      <c r="D15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="7" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="21">
+      <c r="A16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="3" t="s">
+      <c r="B16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="4" t="s">
+      <c r="D16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="21">
+      <c r="A18" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="21">
+      <c r="A19" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="2" t="s">
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="21">
+      <c r="A20" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="3" t="s">
+      <c r="B20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="4" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="21">
+      <c r="A21" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>14</v>
@@ -1045,7 +1063,7 @@
         <v>54</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="21">
       <c r="A22" s="3" t="s">
         <v>55</v>
       </c>
@@ -1062,7 +1080,7 @@
         <v>56</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="21">
       <c r="A23" s="1" t="s">
         <v>57</v>
       </c>
@@ -1079,7 +1097,7 @@
         <v>58</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="21">
       <c r="A24" s="3" t="s">
         <v>59</v>
       </c>
@@ -1096,7 +1114,7 @@
         <v>60</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="21">
       <c r="A25" s="1" t="s">
         <v>61</v>
       </c>
@@ -1113,7 +1131,7 @@
         <v>62</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="21">
       <c r="A26" s="3" t="s">
         <v>63</v>
       </c>
@@ -1182,76 +1200,76 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="3"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
+      <c r="A30" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
+      <c r="A31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
+      <c r="A33" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>75</v>
-      </c>
+      <c r="A34" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" s="2" t="s">
+      <c r="A35" s="9" t="s">
         <v>77</v>
       </c>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>12</v>
@@ -1263,12 +1281,12 @@
         <v>14</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>12</v>
@@ -1280,12 +1298,12 @@
         <v>14</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>12</v>
@@ -1368,14 +1386,48 @@
         <v>90</v>
       </c>
     </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+      <c r="A43" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+      <c r="A44" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A19:E19"/>
     <mergeCell ref="A33:E33"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A35:E35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/example/999_模板人物属性文件.xlsx
+++ b/example/999_模板人物属性文件.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="87">
   <si>
     <t>key</t>
   </si>
@@ -55,12 +55,6 @@
     <t>int</t>
   </si>
   <si>
-    <t>999</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>干员编号：999</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>样板人物</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>姓名：样板人物</t>
   </si>
   <si>
@@ -88,18 +79,12 @@
     <t>Profession</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>职业：术师</t>
   </si>
   <si>
     <t>Race</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
     <t>种族：菲林</t>
   </si>
   <si>
@@ -118,18 +103,12 @@
     <t>Hp</t>
   </si>
   <si>
-    <t>1500</t>
-  </si>
-  <si>
     <t>初始体力：1500</t>
   </si>
   <si>
     <t>Mp</t>
   </si>
   <si>
-    <t>1000</t>
-  </si>
-  <si>
     <t>初始气力：1000</t>
   </si>
   <si>
@@ -175,9 +154,6 @@
     <t>E|81</t>
   </si>
   <si>
-    <t>100</t>
-  </si>
-  <si>
     <t>81号经验（Experience）的值为100：初始战斗经验为100</t>
   </si>
   <si>
@@ -199,43 +175,43 @@
     <t>无接吻经验</t>
   </si>
   <si>
-    <t>T|62</t>
+    <t>T|104</t>
   </si>
   <si>
     <t>少女（年龄素质，必选）</t>
   </si>
   <si>
-    <t>T|70</t>
+    <t>T|111</t>
   </si>
   <si>
     <t>兽耳</t>
   </si>
   <si>
-    <t>T|72</t>
+    <t>T|112</t>
   </si>
   <si>
     <t>兽尾</t>
   </si>
   <si>
-    <t>T|82</t>
+    <t>T|123</t>
   </si>
   <si>
     <t>普乳（胸部、屁股、腿、脚，四个素质都是必选）</t>
   </si>
   <si>
-    <t>T|86</t>
+    <t>T|127</t>
   </si>
   <si>
     <t>普尻</t>
   </si>
   <si>
-    <t>T|88</t>
+    <t>T|129</t>
   </si>
   <si>
     <t>细腿</t>
   </si>
   <si>
-    <t>T|90</t>
+    <t>T|131</t>
   </si>
   <si>
     <t>小足</t>
@@ -244,7 +220,7 @@
     <t>#(说明行，写完请删掉该行)  人物的初始服装，数字代表服装序号，新人物的衣服只用写类型编号就行了，一个类别里可以有多个#</t>
   </si>
   <si>
-    <t>#(说明行，写完请删掉该行)  0,帽子 1,眼镜 2,耳部 3,脖子 4,嘴部 5,上衣 6,胸衣 7,手套 8,下衣 9,内裤 10,袜子 11,鞋子 12,武器 13,附属物#</t>
+    <t>#(说明行，写完请删掉该行)  0：帽子，1：眼镜，2：耳部，3：脖子，4：嘴部，5：上衣，6：胸衣，7：手套，8：下衣，9：内裤，10：袜子，11：鞋子，12：武器，13：附属物#</t>
   </si>
   <si>
     <t>#(说明行，写完请删掉该行)  以下例子是阿米娅的衣服，编号换成了衣服类型#</t>
@@ -334,7 +310,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -396,11 +372,18 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -408,31 +391,46 @@
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -743,11 +741,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="11" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="18.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="11" width="16.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="69.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="15" width="15.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="16" width="18.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="16" width="16.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="15" width="69.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -757,10 +755,10 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -768,37 +766,37 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
       <c r="E3" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21">
       <c r="A5" s="1" t="s">
@@ -807,617 +805,617 @@
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3">
+        <v>999</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="2" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21">
+      <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21">
-      <c r="A6" s="3" t="s">
+      <c r="C6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="D6" s="6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21">
       <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3">
+        <v>4</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21">
+      <c r="A9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="6">
+        <v>13</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="B10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="11">
+        <v>0</v>
+      </c>
+      <c r="D10" s="11">
+        <v>0</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21">
-      <c r="A9" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="B11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="11">
+        <v>9</v>
+      </c>
+      <c r="D11" s="11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>27</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="8">
-        <v>0</v>
-      </c>
-      <c r="D10" s="8">
-        <v>0</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="8">
-        <v>9</v>
-      </c>
-      <c r="D11" s="8">
-        <v>0</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="21">
       <c r="A12" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>14</v>
+      <c r="C12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="21">
-      <c r="A13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>38</v>
+      <c r="A13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1000</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="21">
       <c r="A14" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="21">
-      <c r="A15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>44</v>
+      <c r="A15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="21">
       <c r="A16" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="21">
-      <c r="A18" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
+      <c r="A18" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="21">
-      <c r="A19" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
+      <c r="A19" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="21">
-      <c r="A20" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>51</v>
+      <c r="A20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="6">
+        <v>1</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="21">
       <c r="A21" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>14</v>
+      <c r="C21" s="3">
+        <v>100</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="21">
-      <c r="A22" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>56</v>
+      <c r="A22" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="6">
+        <v>1</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="21">
       <c r="A23" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>14</v>
+      <c r="C23" s="3">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="21">
-      <c r="A24" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>60</v>
+      <c r="A24" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="6">
+        <v>1</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="21">
       <c r="A25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="21">
+      <c r="A26" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="6">
+        <v>1</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="21">
+      <c r="A27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="21">
+      <c r="A28" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="6">
+        <v>1</v>
+      </c>
+      <c r="D28" s="6">
+        <v>0</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="21">
+      <c r="A29" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="2" t="s">
+      <c r="B29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="21">
-      <c r="A26" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="21">
+      <c r="A30" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="4" t="s">
+      <c r="B30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="6">
+        <v>1</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0</v>
+      </c>
+      <c r="E30" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="21">
+      <c r="A31" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="2" t="s">
+      <c r="B31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
+      <c r="A32" s="4"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="21">
+      <c r="A33" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="4" t="s">
+      <c r="B33" s="13"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="21">
+      <c r="A34" s="7" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="1" t="s">
+      <c r="B34" s="8"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="21">
+      <c r="A35" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" s="2" t="s">
+      <c r="B35" s="13"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="21">
+      <c r="A36" s="4" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="3" t="s">
+      <c r="B36" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="6">
+        <v>1</v>
+      </c>
+      <c r="D36" s="6">
+        <v>0</v>
+      </c>
+      <c r="E36" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="4" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="21">
+      <c r="A37" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="1" t="s">
+      <c r="B37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="3">
+        <v>1</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" s="2" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="21">
+      <c r="A38" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="6">
+        <v>1</v>
+      </c>
+      <c r="D38" s="6">
+        <v>0</v>
+      </c>
+      <c r="E38" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="3"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="21">
+      <c r="A39" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="5" t="s">
+      <c r="B39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="3">
+        <v>1</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="9" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="21">
+      <c r="A40" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="3" t="s">
+      <c r="B40" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="6">
+        <v>1</v>
+      </c>
+      <c r="D40" s="6">
+        <v>0</v>
+      </c>
+      <c r="E40" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>86</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>14</v>
+      <c r="C41" s="3">
+        <v>1</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>90</v>
+      <c r="A42" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="6">
+        <v>1</v>
+      </c>
+      <c r="D42" s="6">
+        <v>0</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>14</v>
+      <c r="C43" s="3">
+        <v>1</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>94</v>
+      <c r="A44" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="6">
+        <v>1</v>
+      </c>
+      <c r="D44" s="6">
+        <v>0</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
